--- a/biology/Biologie cellulaire et moléculaire/Dynéine/Dynéine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Dynéine/Dynéine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dyn%C3%A9ine</t>
+          <t>Dynéine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dynéines sont des complexes protéiques d’environ 2 MDa, comportant deux ou trois chaînes lourdes, deux chaînes intermédiaires et huit chaînes légères. Elles sont associées à des microtubules, se dirigeant vers leur extrémité « - » (centripètes), et possèdent plusieurs rôles différents. Les dynéines ne fonctionnent qu'avec un complexe protéique associé, la dynactine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dyn%C3%A9ine</t>
+          <t>Dynéine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Activités des dynéines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On distingue :
 les dynéines axonémalesElles sont fixées à l'un des microtubules des doublets présents en périphérie d'un axonème. Par une activité ATPasique, elles font glisser les tubules entre eux, provoquant leur courbure. Tous les tubules glissant simultanément, les cils et les flagelles sont ainsi mis en mouvement.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dyn%C3%A9ine</t>
+          <t>Dynéine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une absence (déficit génétique) de dynéine est responsable du syndrome du cil immobile dû à  l'absence de battements ciliaires responsable de bronchites chroniques et de stérilité chez l'homme par défaut de mobilité des spermatozoïdes. Il est peut-être également responsable du syndrome de Kartagener caractérisé par un syndrome du cil immobile associé à un situs inversus.
 </t>
